--- a/Artificial_Intelligence_Report.xlsx
+++ b/Artificial_Intelligence_Report.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
